--- a/hardware/DM50 components.xlsx
+++ b/hardware/DM50 components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javier/Documents/proyectos/dm50-calculator/hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6234C9D-5802-1246-A2A8-3FB44F9A1C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69776EB8-9245-7F42-A988-15C37D182AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25340" windowHeight="19800" xr2:uid="{4F63E3C3-42C3-4BC7-BA48-4B174E6DC651}"/>
   </bookViews>
@@ -1189,7 +1189,7 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
